--- a/Data/EV_MI_MS_Recycling.xlsx
+++ b/Data/EV_MI_MS_Recycling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB2EDB0-78DB-4DCF-9030-129467EC01F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444F9A9-4884-4D8C-A768-C3E5C9E2CB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="327">
   <si>
     <t>Na-ion</t>
   </si>
@@ -330,9 +330,6 @@
     <t>MI Motors</t>
   </si>
   <si>
-    <t>Vehicle caracteristics</t>
-  </si>
-  <si>
     <t>(Watari and al., 2019)</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
   </si>
   <si>
     <t>Watari, T., McLellan, B., Ogata, S., &amp; Tezuka, T. (2018). Analysis of Potential for Critical Metal Resource Constraints in the International Energy Agency’s Long-Term Low-Carbon Energy Scenarios. Minerals, 8(4), 156. https://doi.org/10.3390/min8040156*</t>
-  </si>
-  <si>
-    <t>Hp based on (Månberger &amp; Stenqvist, 2018) results : 60% of EV urban vs 40% of EV rural. Supposed the same for each vehicle type</t>
   </si>
   <si>
     <t xml:space="preserve">It is considered that iron is made of 97.86% of steel. So steel is converted in iron by multiplying it with this percentage. </t>
@@ -1057,6 +1051,39 @@
   <si>
     <t>(Adamas Intelligence, 2023)</t>
   </si>
+  <si>
+    <t>Vehicle Stat</t>
+  </si>
+  <si>
+    <t>Adamas Intelligence. (2023, October 26). The average battery size of plug‑in hybrids is soaring: Average battery capacity of PHEVs up 27 % [Insight]. Retrieved August 7, 2025, from https://www.adamasintel.com/ev-increase-battery-capacity-average-kwh-phev-up-27-percent/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metal bottlenecks along energy transitions call for technology flexibility and sobriety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+by Pénélope Bieuville, Guillaume Majeau Bettez and Anne de Bortoli, 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>For any additionnal information on the study, please contact the author, Pénélope Bieuville, at : penelope.bieuville@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -1666,7 +1693,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1785,7 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1834,6 +1860,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,6 +1911,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2279,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71952D8-73BE-4A07-87D1-8889417C9ABB}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2293,152 +2329,177 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="105" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="105"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A7" s="120" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="120"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="A9" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="121"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>307</v>
+      <c r="A10" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A11" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="105"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="106"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="106" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="99"/>
+      <c r="B20" s="96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29">
+      <c r="A21" s="99" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="106"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="107"/>
+    </row>
+    <row r="23" spans="1:2" ht="29">
+      <c r="A23" s="95" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="97" t="s">
+      <c r="B23" s="100" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="107" t="s">
-        <v>316</v>
-      </c>
-      <c r="B18" s="107"/>
-    </row>
-    <row r="19" spans="1:2" ht="29">
-      <c r="A19" s="96" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>317</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2507,7 +2568,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1">
         <v>0.54600000000000004</v>
@@ -2546,7 +2607,7 @@
         <v>71</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>5</v>
@@ -2554,79 +2615,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="72">
         <v>0.4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="75">
         <v>0.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="72">
         <v>0.15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="72">
         <v>0.1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="72">
         <v>0.15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="75">
         <v>0.35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="72">
         <v>0.15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2652,13 +2713,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>256</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>258</v>
       </c>
       <c r="D1" s="9">
         <v>2028</v>
@@ -2672,13 +2733,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D2" s="71">
         <v>0.6</v>
@@ -2692,13 +2753,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="72">
         <v>0.6</v>
@@ -2712,13 +2773,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D4" s="72">
         <v>0.6</v>
@@ -2732,13 +2793,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="72">
         <v>0.5</v>
@@ -2752,13 +2813,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="72">
         <v>0.5</v>
@@ -2772,13 +2833,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D7" s="72">
         <v>0.5</v>
@@ -2792,13 +2853,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8" s="72">
         <v>0.5</v>
@@ -2812,13 +2873,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D9" s="72">
         <v>0.4</v>
@@ -2832,13 +2893,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D10" s="72">
         <v>0.4</v>
@@ -2852,13 +2913,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" s="72">
         <v>0.4</v>
@@ -2872,13 +2933,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D12" s="72">
         <v>0.3</v>
@@ -2892,13 +2953,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D13" s="72">
         <v>0.3</v>
@@ -2912,13 +2973,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D14" s="72">
         <v>0.3</v>
@@ -2932,13 +2993,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D15" s="72">
         <v>0.3</v>
@@ -2952,42 +3013,42 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3010,282 +3071,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="72.5" customHeight="1" thickBot="1">
-      <c r="A1" s="86" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="92" t="s">
+      <c r="A1" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="H1" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="I1" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="J1" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="K1" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="L1" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="M1" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="N1" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="O1" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="93" t="s">
+      <c r="P1" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="93" t="s">
+      <c r="Q1" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="R1" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="93" t="s">
+      <c r="S1" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="T1" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="93" t="s">
+      <c r="U1" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="93" t="s">
+      <c r="V1" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="93" t="s">
+      <c r="W1" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="V1" s="93" t="s">
+      <c r="X1" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="W1" s="93" t="s">
+      <c r="Y1" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="X1" s="93" t="s">
+      <c r="Z1" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="Y1" s="93" t="s">
+      <c r="AA1" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="93" t="s">
+      <c r="AB1" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="AA1" s="93" t="s">
+      <c r="AC1" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="AB1" s="93" t="s">
+      <c r="AD1" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="AC1" s="93" t="s">
+      <c r="AE1" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="AD1" s="93" t="s">
+      <c r="AF1" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="AE1" s="93" t="s">
+      <c r="AG1" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="AF1" s="93" t="s">
+      <c r="AH1" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="AG1" s="93" t="s">
+      <c r="AI1" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="AH1" s="93" t="s">
+      <c r="AJ1" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="AI1" s="93" t="s">
+      <c r="AK1" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="AJ1" s="93" t="s">
+      <c r="AL1" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="AK1" s="93" t="s">
+      <c r="AM1" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="AL1" s="93" t="s">
+      <c r="AN1" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AM1" s="93" t="s">
+      <c r="AO1" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="AN1" s="93" t="s">
+      <c r="AP1" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="AO1" s="93" t="s">
+      <c r="AQ1" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="AP1" s="93" t="s">
+      <c r="AR1" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="AQ1" s="93" t="s">
+      <c r="AS1" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="AR1" s="93" t="s">
+      <c r="AT1" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="AS1" s="93" t="s">
+      <c r="AU1" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="AT1" s="93" t="s">
+      <c r="AV1" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="AU1" s="93" t="s">
+      <c r="AW1" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="AV1" s="93" t="s">
+      <c r="AX1" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="AW1" s="93" t="s">
+      <c r="AY1" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="AX1" s="93" t="s">
+      <c r="AZ1" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="AY1" s="93" t="s">
+      <c r="BA1" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="AZ1" s="93" t="s">
+      <c r="BB1" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="BA1" s="93" t="s">
+      <c r="BC1" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="BB1" s="93" t="s">
+      <c r="BD1" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="BC1" s="93" t="s">
+      <c r="BE1" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="BD1" s="93" t="s">
+      <c r="BF1" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="BE1" s="93" t="s">
+      <c r="BG1" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="BF1" s="93" t="s">
+      <c r="BH1" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="BG1" s="93" t="s">
+      <c r="BI1" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="BH1" s="93" t="s">
+      <c r="BJ1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="BI1" s="93" t="s">
+      <c r="BK1" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="BJ1" s="93" t="s">
+      <c r="BL1" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="BK1" s="93" t="s">
+      <c r="BM1" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="BL1" s="93" t="s">
+      <c r="BN1" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="BM1" s="93" t="s">
+      <c r="BO1" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="BN1" s="93" t="s">
+      <c r="BP1" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="BO1" s="93" t="s">
+      <c r="BQ1" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="BP1" s="93" t="s">
+      <c r="BR1" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="BQ1" s="93" t="s">
+      <c r="BS1" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="BR1" s="93" t="s">
+      <c r="BT1" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="BS1" s="93" t="s">
+      <c r="BU1" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="BT1" s="93" t="s">
+      <c r="BV1" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="BU1" s="93" t="s">
+      <c r="BW1" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="BV1" s="93" t="s">
+      <c r="BX1" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="BW1" s="93" t="s">
+      <c r="BY1" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="BX1" s="93" t="s">
+      <c r="BZ1" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="BY1" s="93" t="s">
+      <c r="CA1" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="BZ1" s="93" t="s">
+      <c r="CB1" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="CA1" s="93" t="s">
+      <c r="CC1" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="CB1" s="93" t="s">
+      <c r="CD1" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="CC1" s="93" t="s">
+      <c r="CE1" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="CD1" s="93" t="s">
+      <c r="CF1" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="CE1" s="93" t="s">
+      <c r="CG1" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="CF1" s="93" t="s">
+      <c r="CH1" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="CG1" s="93" t="s">
+      <c r="CI1" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="CH1" s="93" t="s">
+      <c r="CJ1" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="CI1" s="93" t="s">
+      <c r="CK1" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="CJ1" s="93" t="s">
+      <c r="CL1" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="CK1" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL1" s="94" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="2" spans="1:90">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="90">
         <f>IF(ISNUMBER(FIND($A2,SUBSTITUTE(SUBSTITUTE(B$1,"_Cu",""),"_Al",""))), 1, 0)</f>
         <v>1</v>
       </c>
@@ -3643,10 +3704,10 @@
       </c>
     </row>
     <row r="3" spans="1:90">
-      <c r="A3" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="87">
+      <c r="A3" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="86">
         <f t="shared" ref="B3:Q20" si="2">IF(ISNUMBER(FIND($A3,SUBSTITUTE(SUBSTITUTE(B$1,"_Cu",""),"_Al",""))), 1, 0)</f>
         <v>0</v>
       </c>
@@ -4004,10 +4065,10 @@
       </c>
     </row>
     <row r="4" spans="1:90">
-      <c r="A4" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="87">
+      <c r="A4" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4365,10 +4426,10 @@
       </c>
     </row>
     <row r="5" spans="1:90">
-      <c r="A5" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="87">
+      <c r="A5" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4726,10 +4787,10 @@
       </c>
     </row>
     <row r="6" spans="1:90">
-      <c r="A6" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="87">
+      <c r="A6" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5087,10 +5148,10 @@
       </c>
     </row>
     <row r="7" spans="1:90">
-      <c r="A7" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="87">
+      <c r="A7" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5448,10 +5509,10 @@
       </c>
     </row>
     <row r="8" spans="1:90">
-      <c r="A8" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="87">
+      <c r="A8" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5809,10 +5870,10 @@
       </c>
     </row>
     <row r="9" spans="1:90">
-      <c r="A9" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="87">
+      <c r="A9" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6170,10 +6231,10 @@
       </c>
     </row>
     <row r="10" spans="1:90">
-      <c r="A10" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="87">
+      <c r="A10" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6531,10 +6592,10 @@
       </c>
     </row>
     <row r="11" spans="1:90">
-      <c r="A11" s="89" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="87">
+      <c r="A11" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6892,10 +6953,10 @@
       </c>
     </row>
     <row r="12" spans="1:90">
-      <c r="A12" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="87">
+      <c r="A12" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7253,10 +7314,10 @@
       </c>
     </row>
     <row r="13" spans="1:90">
-      <c r="A13" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="87">
+      <c r="A13" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7614,10 +7675,10 @@
       </c>
     </row>
     <row r="14" spans="1:90">
-      <c r="A14" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="87">
+      <c r="A14" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7975,10 +8036,10 @@
       </c>
     </row>
     <row r="15" spans="1:90">
-      <c r="A15" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="87">
+      <c r="A15" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8336,10 +8397,10 @@
       </c>
     </row>
     <row r="16" spans="1:90">
-      <c r="A16" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="87">
+      <c r="A16" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8697,10 +8758,10 @@
       </c>
     </row>
     <row r="17" spans="1:90">
-      <c r="A17" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="87">
+      <c r="A17" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9058,10 +9119,10 @@
       </c>
     </row>
     <row r="18" spans="1:90">
-      <c r="A18" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="87">
+      <c r="A18" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9419,10 +9480,10 @@
       </c>
     </row>
     <row r="19" spans="1:90">
-      <c r="A19" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="87">
+      <c r="A19" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9780,10 +9841,10 @@
       </c>
     </row>
     <row r="20" spans="1:90">
-      <c r="A20" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="87">
+      <c r="A20" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10141,10 +10202,10 @@
       </c>
     </row>
     <row r="21" spans="1:90">
-      <c r="A21" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="87">
+      <c r="A21" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="86">
         <f t="shared" ref="B21:Q26" si="10">IF(ISNUMBER(FIND($A21,SUBSTITUTE(SUBSTITUTE(B$1,"_Cu",""),"_Al",""))), 1, 0)</f>
         <v>0</v>
       </c>
@@ -10502,10 +10563,10 @@
       </c>
     </row>
     <row r="22" spans="1:90">
-      <c r="A22" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="87">
+      <c r="A22" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="86">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -10863,10 +10924,10 @@
       </c>
     </row>
     <row r="23" spans="1:90">
-      <c r="A23" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="87">
+      <c r="A23" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="86">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11224,10 +11285,10 @@
       </c>
     </row>
     <row r="24" spans="1:90">
-      <c r="A24" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="87">
+      <c r="A24" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="86">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11585,10 +11646,10 @@
       </c>
     </row>
     <row r="25" spans="1:90">
-      <c r="A25" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="87">
+      <c r="A25" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="86">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11946,10 +12007,10 @@
       </c>
     </row>
     <row r="26" spans="1:90" ht="15" thickBot="1">
-      <c r="A26" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="B26" s="87">
+      <c r="A26" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="86">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12335,7 +12396,7 @@
   <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -12362,16 +12423,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="113" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="D2" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12380,15 +12441,15 @@
         <v>77</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="113" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="118" t="s">
         <v>3</v>
@@ -12397,7 +12458,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12405,7 +12466,7 @@
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
       <c r="D5" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12413,52 +12474,50 @@
         <v>82</v>
       </c>
       <c r="B6" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="D6" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="114"/>
       <c r="B7" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="D7" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="115"/>
       <c r="B8" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="26" t="s">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>97</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="27" t="s">
@@ -12539,67 +12598,67 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="116" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="117"/>
       <c r="B17" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" t="s">
         <v>280</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="108"/>
-      <c r="B19" s="84" t="s">
-        <v>284</v>
+      <c r="B19" s="38" t="s">
+        <v>282</v>
       </c>
       <c r="C19" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
         <v>283</v>
-      </c>
-      <c r="D19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="83"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="85" t="s">
-        <v>118</v>
+      <c r="A22" s="84" t="s">
+        <v>116</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>46</v>
@@ -12607,7 +12666,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1">
         <f>0.6*B27+0.4*C27</f>
@@ -12622,12 +12681,12 @@
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1">
         <f>0.6*B28+0.4*C28</f>
@@ -12642,30 +12701,30 @@
         <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>5</v>
@@ -12673,7 +12732,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -12694,12 +12753,12 @@
         <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1">
         <v>50</v>
@@ -12720,7 +12779,7 @@
         <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -12728,7 +12787,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -12736,7 +12795,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12744,7 +12803,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:51">
@@ -13211,35 +13270,35 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44" s="18"/>
     </row>
     <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:51">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:51">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -13261,12 +13320,12 @@
     <hyperlink ref="C12" r:id="rId2" display="https://doi.org/10.5281/zenodo.7252047" xr:uid="{76FD0693-B3C8-479F-B6AB-643A2F4AC021}"/>
     <hyperlink ref="C2" r:id="rId3" display="https://doi.org/10.1016/j.resconrec.2019.05.015" xr:uid="{5C1123DF-08B7-4962-8054-03B42628E01D}"/>
     <hyperlink ref="C6" r:id="rId4" display="https://doi.org/10.1016/j.enpol.2018.04.056" xr:uid="{4B4DD509-05F2-48EC-9FA4-13ED34AD77A6}"/>
-    <hyperlink ref="C9" r:id="rId5" display="https://doi.org/10.1016/j.enpol.2018.04.056" xr:uid="{B0BDC308-5901-4CDB-9E05-3AF740DF5275}"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://doi.org/10.1109/IEMDC.2017.8002010" xr:uid="{0A36AFA7-D5A9-4BAF-8A2D-8C2EA41D75DA}"/>
-    <hyperlink ref="C16" r:id="rId7" display="https://doi.org/10.1016/j.enpol.2018.04.056" xr:uid="{DE48B82D-3C12-472D-B8A6-4D6A347EF3FC}"/>
-    <hyperlink ref="C17" r:id="rId8" display="https://doi.org/10.1088/1748-9326/aca4ea" xr:uid="{CC4F1309-43FA-422D-A128-DDD1E2C19D6D}"/>
-    <hyperlink ref="C18" r:id="rId9" display="https://doi.org/10.1088/1748-9326/aca4ea" xr:uid="{43F41B9C-A0EB-45BF-97A2-9DD9417F05A1}"/>
-    <hyperlink ref="C19" r:id="rId10" display="http://data.europa.eu/eli/reg/2023/1542/oj" xr:uid="{11282A4D-DFDC-417F-B4CE-51AD55856836}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://doi.org/10.1109/IEMDC.2017.8002010" xr:uid="{0A36AFA7-D5A9-4BAF-8A2D-8C2EA41D75DA}"/>
+    <hyperlink ref="C16" r:id="rId6" display="https://doi.org/10.1016/j.enpol.2018.04.056" xr:uid="{DE48B82D-3C12-472D-B8A6-4D6A347EF3FC}"/>
+    <hyperlink ref="C17" r:id="rId7" display="https://doi.org/10.1088/1748-9326/aca4ea" xr:uid="{CC4F1309-43FA-422D-A128-DDD1E2C19D6D}"/>
+    <hyperlink ref="C18" r:id="rId8" display="https://doi.org/10.1088/1748-9326/aca4ea" xr:uid="{43F41B9C-A0EB-45BF-97A2-9DD9417F05A1}"/>
+    <hyperlink ref="C19" r:id="rId9" display="http://data.europa.eu/eli/reg/2023/1542/oj" xr:uid="{11282A4D-DFDC-417F-B4CE-51AD55856836}"/>
+    <hyperlink ref="C9" r:id="rId10" display="https://www.adamasintel.com/ev-increase-battery-capacity-average-kwh-phev-up-27-percent/" xr:uid="{751C8937-8D5F-420E-9F62-77DB909762E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13280,7 +13339,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:G6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -13314,7 +13373,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="23">
         <v>71300</v>
@@ -13434,7 +13493,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:S6"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -13453,19 +13512,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="G1" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="H1" s="65" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>123</v>
       </c>
       <c r="I1" s="60" t="s">
         <v>14</v>
@@ -13474,10 +13533,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L1" s="65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M1" s="60" t="s">
         <v>13</v>
@@ -13493,12 +13552,12 @@
       </c>
       <c r="R1" s="62"/>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="35">
         <v>0</v>
@@ -13541,19 +13600,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="R2" s="65"/>
       <c r="S2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="42">
         <v>440.37930928179981</v>
@@ -13595,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>3</v>
@@ -13603,7 +13662,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="42">
         <v>598.9160864036869</v>
@@ -13645,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P4" s="42" t="s">
         <v>3</v>
@@ -13653,7 +13712,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="42">
         <v>1277.1002589838204</v>
@@ -13695,7 +13754,7 @@
         <v>554.87801436273696</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P5" s="42" t="s">
         <v>3</v>
@@ -13703,7 +13762,7 @@
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="50">
         <v>0</v>
@@ -13745,7 +13804,7 @@
         <v>334.688460516676</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>3</v>
@@ -13774,22 +13833,22 @@
         <v>71</v>
       </c>
       <c r="B1" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>135</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>137</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>46</v>
@@ -13799,15 +13858,15 @@
       </c>
       <c r="K1" s="62"/>
       <c r="L1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="57">
         <v>0</v>
@@ -13833,16 +13892,16 @@
         <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="65"/>
       <c r="L2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="58">
         <v>13884.5</v>
@@ -13866,12 +13925,12 @@
         <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="59">
         <v>83</v>
@@ -13895,12 +13954,12 @@
         <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="59">
         <v>695</v>
@@ -13924,12 +13983,12 @@
         <v>75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="58">
         <v>1</v>
@@ -13953,7 +14012,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -13969,7 +14028,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -13979,7 +14038,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>72</v>
@@ -13999,7 +14058,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1">
         <v>1.3</v>
@@ -14011,10 +14070,10 @@
         <v>62.5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -14046,10 +14105,10 @@
         <v>36</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -14110,68 +14169,68 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102">
+      <c r="C1" s="101">
         <v>2014</v>
       </c>
-      <c r="D1" s="102">
+      <c r="D1" s="101">
         <v>2015</v>
       </c>
-      <c r="E1" s="102">
+      <c r="E1" s="101">
         <v>2016</v>
       </c>
-      <c r="F1" s="102">
+      <c r="F1" s="101">
         <v>2017</v>
       </c>
-      <c r="G1" s="102">
+      <c r="G1" s="101">
         <v>2018</v>
       </c>
-      <c r="H1" s="102">
+      <c r="H1" s="101">
         <v>2019</v>
       </c>
-      <c r="I1" s="102">
+      <c r="I1" s="101">
         <v>2020</v>
       </c>
-      <c r="J1" s="102">
+      <c r="J1" s="101">
         <v>2021</v>
       </c>
-      <c r="K1" s="102">
+      <c r="K1" s="101">
         <v>2022</v>
       </c>
-      <c r="L1" s="102">
+      <c r="L1" s="101">
         <v>2023</v>
       </c>
-      <c r="M1" s="102">
+      <c r="M1" s="101">
         <v>2024</v>
       </c>
-      <c r="N1" s="102">
+      <c r="N1" s="101">
         <v>2025</v>
       </c>
-      <c r="O1" s="102">
+      <c r="O1" s="101">
         <v>2026</v>
       </c>
-      <c r="P1" s="102">
+      <c r="P1" s="101">
         <v>2027</v>
       </c>
-      <c r="Q1" s="102">
+      <c r="Q1" s="101">
         <v>2028</v>
       </c>
-      <c r="R1" s="102">
+      <c r="R1" s="101">
         <v>2029</v>
       </c>
-      <c r="S1" s="102">
+      <c r="S1" s="101">
         <v>2030</v>
       </c>
-      <c r="T1" s="102">
+      <c r="T1" s="101">
         <v>2040</v>
       </c>
-      <c r="U1" s="102">
+      <c r="U1" s="101">
         <v>2050</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -14242,7 +14301,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -14608,23 +14667,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="98" t="s">
+      <c r="C1" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="98" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="99" t="s">
-        <v>304</v>
+      <c r="F1" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7">
